--- a/3.a.1.xlsx
+++ b/3.a.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soyma\Documents\GitHub\ODS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECAAB1DD-7EF4-48ED-B5C8-65D7E9F164B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD94FEE-3945-4B69-B3B4-27736ED5A054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="5748" yWindow="3276" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
   <sheets>
     <sheet name="Recuperado_Hoja1" sheetId="1" r:id="rId1"/>
@@ -1127,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
